--- a/Datos_Situacion_Problema.xlsx
+++ b/Datos_Situacion_Problema.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dari\Documents\TeachinAsistant\FJ2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauli\OneDrive\Escritorio\Uni\MATERIAS\2do Semestre\3er Bloque\Análisis estadístico\Reto\reto-analisis-estadistico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7A2A4A-2A8D-4D38-BE48-A269BDAECED5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E1B445-5718-47D7-8320-915D9D65B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EFA9477-C36B-E644-A7CA-109041BD36FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7EFA9477-C36B-E644-A7CA-109041BD36FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Histórico de defectos" sheetId="2" r:id="rId1"/>
     <sheet name="Índice" sheetId="3" r:id="rId2"/>
     <sheet name="Datos de muestreo" sheetId="1" r:id="rId3"/>
+    <sheet name="Producto A" sheetId="5" r:id="rId4"/>
+    <sheet name="Producto B" sheetId="6" r:id="rId5"/>
+    <sheet name="Producto C" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Datos de muestreo'!$A$2:$J$102</definedName>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>Producto A</t>
   </si>
@@ -344,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,18 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -430,6 +421,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,35 +750,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FC13A4-BF69-45C4-A8C1-9FF40DCF25C2}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="7" max="7" width="4.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -783,14 +787,14 @@
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
@@ -798,22 +802,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
@@ -821,679 +825,679 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="23">
         <v>300000</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>157800</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27">
+      <c r="D4" s="21"/>
+      <c r="E4" s="23">
         <v>40000</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="28">
         <v>1100</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27">
+      <c r="G4" s="21"/>
+      <c r="H4" s="23">
         <v>200000</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="24">
         <v>78050</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="25">
         <v>300000</v>
       </c>
       <c r="C5" s="10">
         <v>57400</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29">
+      <c r="D5" s="21"/>
+      <c r="E5" s="25">
         <v>40000</v>
       </c>
       <c r="F5" s="3">
         <v>2100</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="29">
+      <c r="G5" s="21"/>
+      <c r="H5" s="25">
         <v>200000</v>
       </c>
       <c r="I5" s="10">
         <v>63350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="25">
         <v>300000</v>
       </c>
       <c r="C6" s="10">
         <v>85800</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="29">
+      <c r="D6" s="21"/>
+      <c r="E6" s="25">
         <v>40000</v>
       </c>
       <c r="F6" s="3">
         <v>1200</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="29">
+      <c r="G6" s="21"/>
+      <c r="H6" s="25">
         <v>200000</v>
       </c>
       <c r="I6" s="10">
         <v>74900</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="25">
         <v>300000</v>
       </c>
       <c r="C7" s="10">
         <v>12400</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29">
+      <c r="D7" s="21"/>
+      <c r="E7" s="25">
         <v>40000</v>
       </c>
       <c r="F7" s="3">
         <v>2200</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="29">
+      <c r="G7" s="21"/>
+      <c r="H7" s="25">
         <v>200000</v>
       </c>
       <c r="I7" s="10">
         <v>72450</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="25">
         <v>300000</v>
       </c>
       <c r="C8" s="10">
         <v>45600</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="29">
+      <c r="D8" s="21"/>
+      <c r="E8" s="25">
         <v>40000</v>
       </c>
       <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="29">
+      <c r="G8" s="21"/>
+      <c r="H8" s="25">
         <v>200000</v>
       </c>
       <c r="I8" s="10">
         <v>87150</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="25">
         <v>300000</v>
       </c>
       <c r="C9" s="10">
         <v>22100</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="25">
         <v>40000</v>
       </c>
       <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="29">
+      <c r="G9" s="21"/>
+      <c r="H9" s="25">
         <v>200000</v>
       </c>
       <c r="I9" s="10">
         <v>96250</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>7</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="25">
         <v>300000</v>
       </c>
       <c r="C10" s="10">
         <v>163700</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="29">
+      <c r="D10" s="21"/>
+      <c r="E10" s="25">
         <v>40000</v>
       </c>
       <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="29">
+      <c r="G10" s="21"/>
+      <c r="H10" s="25">
         <v>200000</v>
       </c>
       <c r="I10" s="10">
         <v>91000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
         <v>8</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="25">
         <v>300000</v>
       </c>
       <c r="C11" s="10">
         <v>166300</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29">
+      <c r="D11" s="21"/>
+      <c r="E11" s="25">
         <v>40000</v>
       </c>
       <c r="F11" s="3">
         <v>3800</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="29">
+      <c r="G11" s="21"/>
+      <c r="H11" s="25">
         <v>200000</v>
       </c>
       <c r="I11" s="10">
         <v>85400</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="25">
         <v>300000</v>
       </c>
       <c r="C12" s="10">
         <v>94100</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="29">
+      <c r="D12" s="21"/>
+      <c r="E12" s="25">
         <v>40000</v>
       </c>
       <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="29">
+      <c r="G12" s="21"/>
+      <c r="H12" s="25">
         <v>200000</v>
       </c>
       <c r="I12" s="10">
         <v>65800</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
         <v>10</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="25">
         <v>300000</v>
       </c>
       <c r="C13" s="10">
         <v>192800</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="29">
+      <c r="D13" s="21"/>
+      <c r="E13" s="25">
         <v>40000</v>
       </c>
       <c r="F13" s="3">
         <v>4800</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="29">
+      <c r="G13" s="21"/>
+      <c r="H13" s="25">
         <v>200000</v>
       </c>
       <c r="I13" s="10">
         <v>65450</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>11</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="25">
         <v>300000</v>
       </c>
       <c r="C14" s="10">
         <v>135300</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="29">
+      <c r="D14" s="21"/>
+      <c r="E14" s="25">
         <v>40000</v>
       </c>
       <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="29">
+      <c r="G14" s="21"/>
+      <c r="H14" s="25">
         <v>200000</v>
       </c>
       <c r="I14" s="10">
         <v>67900</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
         <v>12</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="25">
         <v>300000</v>
       </c>
       <c r="C15" s="10">
         <v>62800</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="29">
+      <c r="D15" s="21"/>
+      <c r="E15" s="25">
         <v>40000</v>
       </c>
       <c r="F15" s="3">
         <v>6000</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="29">
+      <c r="G15" s="21"/>
+      <c r="H15" s="25">
         <v>200000</v>
       </c>
       <c r="I15" s="10">
         <v>38850</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
         <v>13</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="25">
         <v>300000</v>
       </c>
       <c r="C16" s="10">
         <v>25100</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="29">
+      <c r="D16" s="21"/>
+      <c r="E16" s="25">
         <v>40000</v>
       </c>
       <c r="F16" s="3">
         <v>4500</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="29">
+      <c r="G16" s="21"/>
+      <c r="H16" s="25">
         <v>200000</v>
       </c>
       <c r="I16" s="10">
         <v>68950</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
         <v>14</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="25">
         <v>300000</v>
       </c>
       <c r="C17" s="10">
         <v>6400</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="29">
+      <c r="D17" s="21"/>
+      <c r="E17" s="25">
         <v>40000</v>
       </c>
       <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="29">
+      <c r="G17" s="21"/>
+      <c r="H17" s="25">
         <v>200000</v>
       </c>
       <c r="I17" s="10">
         <v>61600</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
         <v>15</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="25">
         <v>300000</v>
       </c>
       <c r="C18" s="10">
         <v>166800</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="29">
+      <c r="D18" s="21"/>
+      <c r="E18" s="25">
         <v>40000</v>
       </c>
       <c r="F18" s="3">
         <v>5500</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="29">
+      <c r="G18" s="21"/>
+      <c r="H18" s="25">
         <v>200000</v>
       </c>
       <c r="I18" s="10">
         <v>71400</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
         <v>16</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="25">
         <v>300000</v>
       </c>
       <c r="C19" s="10">
         <v>19800</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="29">
+      <c r="D19" s="21"/>
+      <c r="E19" s="25">
         <v>40000</v>
       </c>
       <c r="F19" s="3">
         <v>4300</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="29">
+      <c r="G19" s="21"/>
+      <c r="H19" s="25">
         <v>200000</v>
       </c>
       <c r="I19" s="10">
         <v>85400</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
         <v>17</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="25">
         <v>300000</v>
       </c>
       <c r="C20" s="10">
         <v>20300</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="29">
+      <c r="D20" s="21"/>
+      <c r="E20" s="25">
         <v>40000</v>
       </c>
       <c r="F20" s="3">
         <v>5900</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="29">
+      <c r="G20" s="21"/>
+      <c r="H20" s="25">
         <v>200000</v>
       </c>
       <c r="I20" s="10">
         <v>84700</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
         <v>18</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="25">
         <v>300000</v>
       </c>
       <c r="C21" s="10">
         <v>69100</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="29">
+      <c r="D21" s="21"/>
+      <c r="E21" s="25">
         <v>40000</v>
       </c>
       <c r="F21" s="10">
         <v>10400</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="29">
+      <c r="G21" s="21"/>
+      <c r="H21" s="25">
         <v>200000</v>
       </c>
       <c r="I21" s="10">
         <v>102200</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
         <v>19</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="25">
         <v>300000</v>
       </c>
       <c r="C22" s="10">
         <v>151900</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="25">
         <v>40000</v>
       </c>
       <c r="F22" s="10">
         <v>8500</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="25">
         <v>200000</v>
       </c>
       <c r="I22" s="10">
         <v>88900</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
         <v>20</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="25">
         <v>300000</v>
       </c>
       <c r="C23" s="10">
         <v>108100</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="25">
         <v>40000</v>
       </c>
       <c r="F23" s="10">
         <v>13900</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="25">
         <v>200000</v>
       </c>
       <c r="I23" s="10">
         <v>77350</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
         <v>21</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="25">
         <v>300000</v>
       </c>
       <c r="C24" s="10">
         <v>111600</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="25">
         <v>40000</v>
       </c>
       <c r="F24" s="10">
         <v>11900</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="25">
         <v>200000</v>
       </c>
       <c r="I24" s="10">
         <v>61950</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
         <v>22</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="25">
         <v>300000</v>
       </c>
       <c r="C25" s="10">
         <v>11300</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="25">
         <v>40000</v>
       </c>
       <c r="F25" s="10">
         <v>13700</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="25">
         <v>200000</v>
       </c>
       <c r="I25" s="10">
         <v>68600</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
         <v>23</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="25">
         <v>300000</v>
       </c>
       <c r="C26" s="10">
         <v>154200</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="25">
         <v>40000</v>
       </c>
       <c r="F26" s="10">
         <v>15900</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="25">
         <v>200000</v>
       </c>
       <c r="I26" s="10">
         <v>58100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+    <row r="27" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20">
         <v>24</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="26">
         <v>300000</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="27">
         <v>141700</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="26">
         <v>40000</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="27">
         <v>14000</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="26">
         <v>200000</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="27">
         <v>52850</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F28" s="26"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1516,12 +1520,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1655,12 +1659,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>71</v>
       </c>
@@ -1743,7 +1747,7 @@
       <c r="F3" s="2">
         <v>180</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="12">
         <v>5.3566500000000001</v>
       </c>
       <c r="H3" s="2">
@@ -1755,10 +1759,10 @@
       <c r="J3" s="1">
         <v>29.32304203</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="11"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>24</v>
       </c>
@@ -1777,7 +1781,7 @@
       <c r="F4" s="2">
         <v>120</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
         <v>2.1960000000000002</v>
       </c>
       <c r="H4" s="2">
@@ -1790,11 +1794,11 @@
         <v>40.991914080000001</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>22</v>
       </c>
@@ -1813,7 +1817,7 @@
       <c r="F5" s="2">
         <v>143</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
         <v>0.61319999999999997</v>
       </c>
       <c r="H5" s="2">
@@ -1826,11 +1830,11 @@
         <v>45.877613740000001</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>68</v>
       </c>
@@ -1849,7 +1853,7 @@
       <c r="F6" s="2">
         <v>175</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>2.8746999999999998</v>
       </c>
       <c r="H6" s="2">
@@ -1862,11 +1866,11 @@
         <v>15.713303789999999</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="15"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>22</v>
       </c>
@@ -1885,7 +1889,7 @@
       <c r="F7" s="2">
         <v>121</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>1.6393</v>
       </c>
       <c r="H7" s="2">
@@ -1898,11 +1902,11 @@
         <v>39.838677920000002</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>20</v>
       </c>
@@ -1921,7 +1925,7 @@
       <c r="F8" s="2">
         <v>122</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>1.6732</v>
       </c>
       <c r="H8" s="2">
@@ -1934,11 +1938,11 @@
         <v>42.005130450000003</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>67</v>
       </c>
@@ -1957,7 +1961,7 @@
       <c r="F9" s="2">
         <v>171</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>4.5103</v>
       </c>
       <c r="H9" s="2">
@@ -1970,11 +1974,11 @@
         <v>21.76614464</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>68</v>
       </c>
@@ -1993,7 +1997,7 @@
       <c r="F10" s="2">
         <v>113</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
         <v>3.6034000000000002</v>
       </c>
       <c r="H10" s="2">
@@ -2006,11 +2010,11 @@
         <v>34.900256460000001</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>18</v>
       </c>
@@ -2029,7 +2033,7 @@
       <c r="F11" s="2">
         <v>173</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="12">
         <v>0.30420000000000003</v>
       </c>
       <c r="H11" s="2">
@@ -2042,11 +2046,11 @@
         <v>49.97632411</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -2065,7 +2069,7 @@
       <c r="F12" s="2">
         <v>151</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
         <v>1.09755</v>
       </c>
       <c r="H12" s="2">
@@ -2078,11 +2082,11 @@
         <v>32.850960450000002</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="15"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>23</v>
       </c>
@@ -2101,7 +2105,7 @@
       <c r="F13" s="2">
         <v>151</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <v>0.82025000000000003</v>
       </c>
       <c r="H13" s="2">
@@ -2114,11 +2118,11 @@
         <v>60.025576960000002</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>23</v>
       </c>
@@ -2137,7 +2141,7 @@
       <c r="F14" s="2">
         <v>169</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
         <v>0.64734999999999998</v>
       </c>
       <c r="H14" s="2">
@@ -2150,11 +2154,11 @@
         <v>35.15783236</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>21</v>
       </c>
@@ -2173,7 +2177,7 @@
       <c r="F15" s="2">
         <v>125</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="12">
         <v>0.54990000000000006</v>
       </c>
       <c r="H15" s="2">
@@ -2186,11 +2190,11 @@
         <v>56.511683830000003</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="15"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -2209,7 +2213,7 @@
       <c r="F16" s="2">
         <v>171</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="12">
         <v>1.6385000000000001</v>
       </c>
       <c r="H16" s="2">
@@ -2222,11 +2226,11 @@
         <v>39.645701129999999</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="15"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -2245,7 +2249,7 @@
       <c r="F17" s="2">
         <v>186</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="12">
         <v>2.47845</v>
       </c>
       <c r="H17" s="2">
@@ -2258,11 +2262,11 @@
         <v>36.655118860000002</v>
       </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="15"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>22</v>
       </c>
@@ -2281,7 +2285,7 @@
       <c r="F18" s="2">
         <v>150</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="12">
         <v>0.79059999999999997</v>
       </c>
       <c r="H18" s="2">
@@ -2294,11 +2298,11 @@
         <v>49.092591929999998</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="15"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>24</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="F19" s="2">
         <v>186</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="12">
         <v>1.5708</v>
       </c>
       <c r="H19" s="2">
@@ -2330,11 +2334,11 @@
         <v>26.448607150000001</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="15"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>23</v>
       </c>
@@ -2353,7 +2357,7 @@
       <c r="F20" s="2">
         <v>116</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="12">
         <v>0.437</v>
       </c>
       <c r="H20" s="2">
@@ -2366,11 +2370,11 @@
         <v>59.944574449999998</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>67</v>
       </c>
@@ -2389,7 +2393,7 @@
       <c r="F21" s="2">
         <v>177</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="12">
         <v>2.4134500000000001</v>
       </c>
       <c r="H21" s="2">
@@ -2402,11 +2406,11 @@
         <v>26.154338599999999</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2425,7 +2429,7 @@
       <c r="F22" s="2">
         <v>121</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="12">
         <v>1.6319999999999999</v>
       </c>
       <c r="H22" s="2">
@@ -2438,11 +2442,11 @@
         <v>27.913444519999999</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="15"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2461,7 +2465,7 @@
       <c r="F23" s="2">
         <v>175</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="12">
         <v>1.79305</v>
       </c>
       <c r="H23" s="2">
@@ -2474,11 +2478,11 @@
         <v>23.94012678</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="15"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2497,7 +2501,7 @@
       <c r="F24" s="2">
         <v>184</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="12">
         <v>1.6513500000000001</v>
       </c>
       <c r="H24" s="2">
@@ -2510,11 +2514,11 @@
         <v>46.538378450000003</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="15"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>73</v>
       </c>
@@ -2533,7 +2537,7 @@
       <c r="F25" s="2">
         <v>119</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="12">
         <v>5.43</v>
       </c>
       <c r="H25" s="2">
@@ -2546,11 +2550,11 @@
         <v>46.840460610000001</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="15"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2569,7 +2573,7 @@
       <c r="F26" s="2">
         <v>112</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="12">
         <v>0.55800000000000005</v>
       </c>
       <c r="H26" s="2">
@@ -2582,11 +2586,11 @@
         <v>52.787898259999999</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="15"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="16"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2605,7 +2609,7 @@
       <c r="F27" s="2">
         <v>124</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="12">
         <v>1.7882499999999999</v>
       </c>
       <c r="H27" s="2">
@@ -2618,11 +2622,11 @@
         <v>45.526842330000001</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="15"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="16"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>20</v>
       </c>
@@ -2641,7 +2645,7 @@
       <c r="F28" s="2">
         <v>148</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="12">
         <v>1.4168000000000001</v>
       </c>
       <c r="H28" s="2">
@@ -2654,11 +2658,11 @@
         <v>40.673527730000004</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="15"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="16"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>22</v>
       </c>
@@ -2677,7 +2681,7 @@
       <c r="F29" s="2">
         <v>187</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="12">
         <v>1.8725000000000001</v>
       </c>
       <c r="H29" s="2">
@@ -2690,11 +2694,11 @@
         <v>56.225516480000003</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="15"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="16"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>20</v>
       </c>
@@ -2713,7 +2717,7 @@
       <c r="F30" s="2">
         <v>174</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="12">
         <v>0.47</v>
       </c>
       <c r="H30" s="2">
@@ -2726,11 +2730,11 @@
         <v>35.069484969999998</v>
       </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="15"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="16"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>22</v>
       </c>
@@ -2749,7 +2753,7 @@
       <c r="F31" s="2">
         <v>183</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="12">
         <v>0.77380000000000004</v>
       </c>
       <c r="H31" s="2">
@@ -2762,11 +2766,11 @@
         <v>20.02193681</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="M31" s="15"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="16"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>74</v>
       </c>
@@ -2785,7 +2789,7 @@
       <c r="F32" s="2">
         <v>173</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="12">
         <v>4.4143999999999997</v>
       </c>
       <c r="H32" s="2">
@@ -2798,11 +2802,11 @@
         <v>41.281014239999998</v>
       </c>
       <c r="L32" s="2"/>
-      <c r="M32" s="15"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="16"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>19</v>
       </c>
@@ -2821,7 +2825,7 @@
       <c r="F33" s="2">
         <v>118</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="12">
         <v>0.64200000000000002</v>
       </c>
       <c r="H33" s="2">
@@ -2834,11 +2838,11 @@
         <v>43.097465190000001</v>
       </c>
       <c r="L33" s="2"/>
-      <c r="M33" s="15"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="16"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>73</v>
       </c>
@@ -2857,7 +2861,7 @@
       <c r="F34" s="2">
         <v>118</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="12">
         <v>4.6282500000000004</v>
       </c>
       <c r="H34" s="2">
@@ -2870,11 +2874,11 @@
         <v>36.007883239999998</v>
       </c>
       <c r="L34" s="2"/>
-      <c r="M34" s="15"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="16"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2893,7 +2897,7 @@
       <c r="F35" s="2">
         <v>188</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="12">
         <v>0.35</v>
       </c>
       <c r="H35" s="2">
@@ -2906,11 +2910,11 @@
         <v>51.814288040000001</v>
       </c>
       <c r="L35" s="2"/>
-      <c r="M35" s="15"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="16"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2929,7 +2933,7 @@
       <c r="F36" s="2">
         <v>174</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="12">
         <v>0.53100000000000003</v>
       </c>
       <c r="H36" s="2">
@@ -2942,11 +2946,11 @@
         <v>43.563757670000001</v>
       </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="15"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="16"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>16</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="F37" s="2">
         <v>118</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="12">
         <v>0.2387</v>
       </c>
       <c r="H37" s="2">
@@ -2978,11 +2982,11 @@
         <v>68.444374929999995</v>
       </c>
       <c r="L37" s="2"/>
-      <c r="M37" s="15"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="16"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -3001,7 +3005,7 @@
       <c r="F38" s="2">
         <v>119</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="12">
         <v>2.0437500000000002</v>
       </c>
       <c r="H38" s="2">
@@ -3014,11 +3018,11 @@
         <v>31.948318220000001</v>
       </c>
       <c r="L38" s="2"/>
-      <c r="M38" s="15"/>
+      <c r="M38" s="11"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>16</v>
       </c>
@@ -3037,7 +3041,7 @@
       <c r="F39" s="2">
         <v>127</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="12">
         <v>1.7749999999999999</v>
       </c>
       <c r="H39" s="2">
@@ -3050,11 +3054,11 @@
         <v>49.121430789999998</v>
       </c>
       <c r="L39" s="2"/>
-      <c r="M39" s="15"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="16"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -3073,7 +3077,7 @@
       <c r="F40" s="2">
         <v>182</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="12">
         <v>1.7907</v>
       </c>
       <c r="H40" s="2">
@@ -3086,11 +3090,11 @@
         <v>34.295009790000002</v>
       </c>
       <c r="L40" s="2"/>
-      <c r="M40" s="15"/>
+      <c r="M40" s="11"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="16"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>22</v>
       </c>
@@ -3109,7 +3113,7 @@
       <c r="F41" s="2">
         <v>151</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="12">
         <v>0.91959999999999997</v>
       </c>
       <c r="H41" s="2">
@@ -3122,11 +3126,11 @@
         <v>60.115212040000003</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="15"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="16"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>67</v>
       </c>
@@ -3145,7 +3149,7 @@
       <c r="F42" s="2">
         <v>114</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="12">
         <v>2.4559000000000002</v>
       </c>
       <c r="H42" s="2">
@@ -3158,11 +3162,11 @@
         <v>65.152437199999994</v>
       </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="15"/>
+      <c r="M42" s="11"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="16"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>17</v>
       </c>
@@ -3181,7 +3185,7 @@
       <c r="F43" s="2">
         <v>124</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="12">
         <v>1.9778</v>
       </c>
       <c r="H43" s="2">
@@ -3194,11 +3198,11 @@
         <v>28.483287560000001</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="15"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="16"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -3217,7 +3221,7 @@
       <c r="F44" s="2">
         <v>179</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="12">
         <v>1.6405000000000001</v>
       </c>
       <c r="H44" s="2">
@@ -3230,11 +3234,11 @@
         <v>35.585646629999999</v>
       </c>
       <c r="L44" s="2"/>
-      <c r="M44" s="15"/>
+      <c r="M44" s="11"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="16"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3253,7 +3257,7 @@
       <c r="F45" s="2">
         <v>178</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="12">
         <v>1.6471</v>
       </c>
       <c r="H45" s="2">
@@ -3266,11 +3270,11 @@
         <v>35.556626850000001</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="15"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="16"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>19</v>
       </c>
@@ -3289,7 +3293,7 @@
       <c r="F46" s="2">
         <v>126</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="12">
         <v>0.53110000000000002</v>
       </c>
       <c r="H46" s="2">
@@ -3302,11 +3306,11 @@
         <v>41.516002960000002</v>
       </c>
       <c r="L46" s="2"/>
-      <c r="M46" s="15"/>
+      <c r="M46" s="11"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="16"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>20</v>
       </c>
@@ -3325,7 +3329,7 @@
       <c r="F47" s="2">
         <v>127</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="12">
         <v>0.63190000000000002</v>
       </c>
       <c r="H47" s="2">
@@ -3338,11 +3342,11 @@
         <v>38.850761970000001</v>
       </c>
       <c r="L47" s="2"/>
-      <c r="M47" s="15"/>
+      <c r="M47" s="11"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="16"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>73</v>
       </c>
@@ -3361,7 +3365,7 @@
       <c r="F48" s="2">
         <v>118</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="12">
         <v>2.67415</v>
       </c>
       <c r="H48" s="2">
@@ -3374,11 +3378,11 @@
         <v>68.074521610000005</v>
       </c>
       <c r="L48" s="2"/>
-      <c r="M48" s="15"/>
+      <c r="M48" s="11"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="16"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>21</v>
       </c>
@@ -3397,7 +3401,7 @@
       <c r="F49" s="2">
         <v>142</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="12">
         <v>2.1147</v>
       </c>
       <c r="H49" s="2">
@@ -3410,11 +3414,11 @@
         <v>49.06527269</v>
       </c>
       <c r="L49" s="2"/>
-      <c r="M49" s="15"/>
+      <c r="M49" s="11"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="16"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>20</v>
       </c>
@@ -3433,7 +3437,7 @@
       <c r="F50" s="2">
         <v>121</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="12">
         <v>1.2956000000000001</v>
       </c>
       <c r="H50" s="2">
@@ -3446,11 +3450,11 @@
         <v>52.12546863</v>
       </c>
       <c r="L50" s="2"/>
-      <c r="M50" s="15"/>
+      <c r="M50" s="11"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="16"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>19</v>
       </c>
@@ -3469,7 +3473,7 @@
       <c r="F51" s="2">
         <v>179</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="12">
         <v>1.66605</v>
       </c>
       <c r="H51" s="2">
@@ -3482,11 +3486,11 @@
         <v>33.981799610000003</v>
       </c>
       <c r="L51" s="2"/>
-      <c r="M51" s="15"/>
+      <c r="M51" s="11"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="16"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3505,7 +3509,7 @@
       <c r="F52" s="2">
         <v>119</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="12">
         <v>2.3912</v>
       </c>
       <c r="H52" s="2">
@@ -3518,11 +3522,11 @@
         <v>40.98185454</v>
       </c>
       <c r="L52" s="2"/>
-      <c r="M52" s="15"/>
+      <c r="M52" s="11"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="16"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="12"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>24</v>
       </c>
@@ -3541,7 +3545,7 @@
       <c r="F53" s="2">
         <v>125</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="12">
         <v>1.5911999999999999</v>
       </c>
       <c r="H53" s="2">
@@ -3554,11 +3558,11 @@
         <v>28.594999699999999</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="15"/>
+      <c r="M53" s="11"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="16"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="12"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>69</v>
       </c>
@@ -3577,7 +3581,7 @@
       <c r="F54" s="2">
         <v>169</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="12">
         <v>5.6062500000000002</v>
       </c>
       <c r="H54" s="2">
@@ -3590,11 +3594,11 @@
         <v>32.56293101</v>
       </c>
       <c r="L54" s="2"/>
-      <c r="M54" s="15"/>
+      <c r="M54" s="11"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="16"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="12"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>74</v>
       </c>
@@ -3613,7 +3617,7 @@
       <c r="F55" s="2">
         <v>173</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="12">
         <v>3.6312000000000002</v>
       </c>
       <c r="H55" s="2">
@@ -3626,11 +3630,11 @@
         <v>55.371702910000003</v>
       </c>
       <c r="L55" s="2"/>
-      <c r="M55" s="15"/>
+      <c r="M55" s="11"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="16"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="12"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>25</v>
       </c>
@@ -3649,7 +3653,7 @@
       <c r="F56" s="2">
         <v>149</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="12">
         <v>0.53625</v>
       </c>
       <c r="H56" s="2">
@@ -3662,11 +3666,11 @@
         <v>41.211727590000002</v>
       </c>
       <c r="L56" s="2"/>
-      <c r="M56" s="15"/>
+      <c r="M56" s="11"/>
       <c r="N56" s="2"/>
-      <c r="O56" s="16"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="12"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>19</v>
       </c>
@@ -3685,7 +3689,7 @@
       <c r="F57" s="2">
         <v>125</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="12">
         <v>0.49385000000000001</v>
       </c>
       <c r="H57" s="2">
@@ -3698,11 +3702,11 @@
         <v>68.124880689999998</v>
       </c>
       <c r="L57" s="2"/>
-      <c r="M57" s="15"/>
+      <c r="M57" s="11"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="16"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="12"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>21</v>
       </c>
@@ -3721,7 +3725,7 @@
       <c r="F58" s="2">
         <v>187</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="12">
         <v>0.83189999999999997</v>
       </c>
       <c r="H58" s="2">
@@ -3734,11 +3738,11 @@
         <v>23.420131949999998</v>
       </c>
       <c r="L58" s="2"/>
-      <c r="M58" s="15"/>
+      <c r="M58" s="11"/>
       <c r="N58" s="2"/>
-      <c r="O58" s="16"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="12"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>23</v>
       </c>
@@ -3757,7 +3761,7 @@
       <c r="F59" s="2">
         <v>113</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="12">
         <v>1.09375</v>
       </c>
       <c r="H59" s="2">
@@ -3770,11 +3774,11 @@
         <v>45.617833230000002</v>
       </c>
       <c r="L59" s="2"/>
-      <c r="M59" s="15"/>
+      <c r="M59" s="11"/>
       <c r="N59" s="2"/>
-      <c r="O59" s="16"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>23</v>
       </c>
@@ -3793,7 +3797,7 @@
       <c r="F60" s="2">
         <v>111</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="12">
         <v>1.7101</v>
       </c>
       <c r="H60" s="2">
@@ -3806,11 +3810,11 @@
         <v>37.890229980000001</v>
       </c>
       <c r="L60" s="2"/>
-      <c r="M60" s="15"/>
+      <c r="M60" s="11"/>
       <c r="N60" s="2"/>
-      <c r="O60" s="16"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="12"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>71</v>
       </c>
@@ -3829,7 +3833,7 @@
       <c r="F61" s="2">
         <v>129</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="12">
         <v>3.1112500000000001</v>
       </c>
       <c r="H61" s="2">
@@ -3842,11 +3846,11 @@
         <v>36.384093100000001</v>
       </c>
       <c r="L61" s="2"/>
-      <c r="M61" s="15"/>
+      <c r="M61" s="11"/>
       <c r="N61" s="2"/>
-      <c r="O61" s="16"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O61" s="12"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>71</v>
       </c>
@@ -3865,7 +3869,7 @@
       <c r="F62" s="2">
         <v>114</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="12">
         <v>5.3497000000000003</v>
       </c>
       <c r="H62" s="2">
@@ -3878,11 +3882,11 @@
         <v>43.947478289999999</v>
       </c>
       <c r="L62" s="2"/>
-      <c r="M62" s="15"/>
+      <c r="M62" s="11"/>
       <c r="N62" s="2"/>
-      <c r="O62" s="16"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O62" s="12"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>73</v>
       </c>
@@ -3901,7 +3905,7 @@
       <c r="F63" s="2">
         <v>184</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="12">
         <v>2.7661500000000001</v>
       </c>
       <c r="H63" s="2">
@@ -3914,11 +3918,11 @@
         <v>41.784770090000002</v>
       </c>
       <c r="L63" s="2"/>
-      <c r="M63" s="15"/>
+      <c r="M63" s="11"/>
       <c r="N63" s="2"/>
-      <c r="O63" s="16"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="12"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>69</v>
       </c>
@@ -3937,7 +3941,7 @@
       <c r="F64" s="2">
         <v>168</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="12">
         <v>2.3370000000000002</v>
       </c>
       <c r="H64" s="2">
@@ -3950,11 +3954,11 @@
         <v>43.507284830000003</v>
       </c>
       <c r="L64" s="2"/>
-      <c r="M64" s="15"/>
+      <c r="M64" s="11"/>
       <c r="N64" s="2"/>
-      <c r="O64" s="16"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="12"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>19</v>
       </c>
@@ -3973,7 +3977,7 @@
       <c r="F65" s="2">
         <v>168</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="12">
         <v>0.55674999999999997</v>
       </c>
       <c r="H65" s="2">
@@ -3986,11 +3990,11 @@
         <v>40.84011606</v>
       </c>
       <c r="L65" s="2"/>
-      <c r="M65" s="15"/>
+      <c r="M65" s="11"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="16"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="12"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>67</v>
       </c>
@@ -4009,7 +4013,7 @@
       <c r="F66" s="2">
         <v>113</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="12">
         <v>4.4013</v>
       </c>
       <c r="H66" s="2">
@@ -4022,11 +4026,11 @@
         <v>46.52753053</v>
       </c>
       <c r="L66" s="2"/>
-      <c r="M66" s="15"/>
+      <c r="M66" s="11"/>
       <c r="N66" s="2"/>
-      <c r="O66" s="16"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="12"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>20</v>
       </c>
@@ -4045,7 +4049,7 @@
       <c r="F67" s="2">
         <v>174</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="12">
         <v>0.40179999999999999</v>
       </c>
       <c r="H67" s="2">
@@ -4058,11 +4062,11 @@
         <v>60.228918739999997</v>
       </c>
       <c r="L67" s="2"/>
-      <c r="M67" s="15"/>
+      <c r="M67" s="11"/>
       <c r="N67" s="2"/>
-      <c r="O67" s="16"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="12"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>20</v>
       </c>
@@ -4081,7 +4085,7 @@
       <c r="F68" s="2">
         <v>147</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="12">
         <v>0.58220000000000005</v>
       </c>
       <c r="H68" s="2">
@@ -4094,11 +4098,11 @@
         <v>47.93797824</v>
       </c>
       <c r="L68" s="2"/>
-      <c r="M68" s="15"/>
+      <c r="M68" s="11"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="16"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O68" s="12"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>21</v>
       </c>
@@ -4117,7 +4121,7 @@
       <c r="F69" s="2">
         <v>184</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="12">
         <v>1.3080000000000001</v>
       </c>
       <c r="H69" s="2">
@@ -4130,11 +4134,11 @@
         <v>46.014998599999998</v>
       </c>
       <c r="L69" s="2"/>
-      <c r="M69" s="15"/>
+      <c r="M69" s="11"/>
       <c r="N69" s="2"/>
-      <c r="O69" s="16"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="12"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -4153,7 +4157,7 @@
       <c r="F70" s="2">
         <v>178</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="12">
         <v>2.9877500000000001</v>
       </c>
       <c r="H70" s="2">
@@ -4166,11 +4170,11 @@
         <v>16.572452009999999</v>
       </c>
       <c r="L70" s="2"/>
-      <c r="M70" s="15"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="2"/>
-      <c r="O70" s="16"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="12"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -4189,7 +4193,7 @@
       <c r="F71" s="2">
         <v>123</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="12">
         <v>5.4839000000000002</v>
       </c>
       <c r="H71" s="2">
@@ -4202,11 +4206,11 @@
         <v>25.447024679999998</v>
       </c>
       <c r="L71" s="2"/>
-      <c r="M71" s="15"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="2"/>
-      <c r="O71" s="16"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="12"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>21</v>
       </c>
@@ -4225,7 +4229,7 @@
       <c r="F72" s="2">
         <v>125</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="12">
         <v>1.4214</v>
       </c>
       <c r="H72" s="2">
@@ -4238,11 +4242,11 @@
         <v>48.248225849999997</v>
       </c>
       <c r="L72" s="2"/>
-      <c r="M72" s="15"/>
+      <c r="M72" s="11"/>
       <c r="N72" s="2"/>
-      <c r="O72" s="16"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="12"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>67</v>
       </c>
@@ -4261,7 +4265,7 @@
       <c r="F73" s="2">
         <v>118</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="12">
         <v>3.3891</v>
       </c>
       <c r="H73" s="2">
@@ -4274,11 +4278,11 @@
         <v>43.508708419999998</v>
       </c>
       <c r="L73" s="2"/>
-      <c r="M73" s="15"/>
+      <c r="M73" s="11"/>
       <c r="N73" s="2"/>
-      <c r="O73" s="16"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="12"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>21</v>
       </c>
@@ -4297,7 +4301,7 @@
       <c r="F74" s="2">
         <v>168</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="12">
         <v>1.40625</v>
       </c>
       <c r="H74" s="2">
@@ -4310,11 +4314,11 @@
         <v>25.09919794</v>
       </c>
       <c r="L74" s="2"/>
-      <c r="M74" s="15"/>
+      <c r="M74" s="11"/>
       <c r="N74" s="2"/>
-      <c r="O74" s="16"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="12"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>67</v>
       </c>
@@ -4333,7 +4337,7 @@
       <c r="F75" s="2">
         <v>116</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="12">
         <v>3.6659999999999999</v>
       </c>
       <c r="H75" s="2">
@@ -4346,11 +4350,11 @@
         <v>43.030675219999999</v>
       </c>
       <c r="L75" s="2"/>
-      <c r="M75" s="15"/>
+      <c r="M75" s="11"/>
       <c r="N75" s="2"/>
-      <c r="O75" s="16"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O75" s="12"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4369,7 +4373,7 @@
       <c r="F76" s="2">
         <v>182</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="12">
         <v>4.5750000000000002</v>
       </c>
       <c r="H76" s="2">
@@ -4382,11 +4386,11 @@
         <v>39.504977400000001</v>
       </c>
       <c r="L76" s="2"/>
-      <c r="M76" s="15"/>
+      <c r="M76" s="11"/>
       <c r="N76" s="2"/>
-      <c r="O76" s="16"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O76" s="12"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -4405,7 +4409,7 @@
       <c r="F77" s="2">
         <v>113</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="12">
         <v>3.6679499999999998</v>
       </c>
       <c r="H77" s="2">
@@ -4418,11 +4422,11 @@
         <v>47.350850180000002</v>
       </c>
       <c r="L77" s="2"/>
-      <c r="M77" s="15"/>
+      <c r="M77" s="11"/>
       <c r="N77" s="2"/>
-      <c r="O77" s="16"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O77" s="12"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>20</v>
       </c>
@@ -4441,7 +4445,7 @@
       <c r="F78" s="2">
         <v>117</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="12">
         <v>0.44879999999999998</v>
       </c>
       <c r="H78" s="2">
@@ -4454,11 +4458,11 @@
         <v>57.084971269999997</v>
       </c>
       <c r="L78" s="2"/>
-      <c r="M78" s="15"/>
+      <c r="M78" s="11"/>
       <c r="N78" s="2"/>
-      <c r="O78" s="16"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O78" s="12"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>21</v>
       </c>
@@ -4477,7 +4481,7 @@
       <c r="F79" s="2">
         <v>146</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="12">
         <v>0.49995000000000001</v>
       </c>
       <c r="H79" s="2">
@@ -4490,11 +4494,11 @@
         <v>33.090952540000004</v>
       </c>
       <c r="L79" s="2"/>
-      <c r="M79" s="15"/>
+      <c r="M79" s="11"/>
       <c r="N79" s="2"/>
-      <c r="O79" s="16"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="12"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>65</v>
       </c>
@@ -4513,7 +4517,7 @@
       <c r="F80" s="2">
         <v>120</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G80" s="12">
         <v>2.6707999999999998</v>
       </c>
       <c r="H80" s="2">
@@ -4526,11 +4530,11 @@
         <v>33.698242239999999</v>
       </c>
       <c r="L80" s="2"/>
-      <c r="M80" s="15"/>
+      <c r="M80" s="11"/>
       <c r="N80" s="2"/>
-      <c r="O80" s="16"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O80" s="12"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>71</v>
       </c>
@@ -4549,7 +4553,7 @@
       <c r="F81" s="2">
         <v>120</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G81" s="12">
         <v>3.5275500000000002</v>
       </c>
       <c r="H81" s="2">
@@ -4562,11 +4566,11 @@
         <v>35.116689549999997</v>
       </c>
       <c r="L81" s="2"/>
-      <c r="M81" s="15"/>
+      <c r="M81" s="11"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="16"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O81" s="12"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>73</v>
       </c>
@@ -4585,7 +4589,7 @@
       <c r="F82" s="2">
         <v>122</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="12">
         <v>4.0298999999999996</v>
       </c>
       <c r="H82" s="2">
@@ -4598,11 +4602,11 @@
         <v>57.368727450000002</v>
       </c>
       <c r="L82" s="2"/>
-      <c r="M82" s="15"/>
+      <c r="M82" s="11"/>
       <c r="N82" s="2"/>
-      <c r="O82" s="16"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="12"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>24</v>
       </c>
@@ -4621,7 +4625,7 @@
       <c r="F83" s="2">
         <v>160</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="12">
         <v>0.78720000000000001</v>
       </c>
       <c r="H83" s="2">
@@ -4634,11 +4638,11 @@
         <v>44.585174090000002</v>
       </c>
       <c r="L83" s="2"/>
-      <c r="M83" s="15"/>
+      <c r="M83" s="11"/>
       <c r="N83" s="2"/>
-      <c r="O83" s="16"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O83" s="12"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>22</v>
       </c>
@@ -4657,7 +4661,7 @@
       <c r="F84" s="2">
         <v>113</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G84" s="12">
         <v>0.64639999999999997</v>
       </c>
       <c r="H84" s="2">
@@ -4670,11 +4674,11 @@
         <v>38.536100570000002</v>
       </c>
       <c r="L84" s="2"/>
-      <c r="M84" s="15"/>
+      <c r="M84" s="11"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="16"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="12"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>66</v>
       </c>
@@ -4693,7 +4697,7 @@
       <c r="F85" s="2">
         <v>180</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="12">
         <v>3.5604</v>
       </c>
       <c r="H85" s="2">
@@ -4706,11 +4710,11 @@
         <v>18.826130930000001</v>
       </c>
       <c r="L85" s="2"/>
-      <c r="M85" s="15"/>
+      <c r="M85" s="11"/>
       <c r="N85" s="2"/>
-      <c r="O85" s="16"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O85" s="12"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>22</v>
       </c>
@@ -4729,7 +4733,7 @@
       <c r="F86" s="2">
         <v>116</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G86" s="12">
         <v>0.4738</v>
       </c>
       <c r="H86" s="2">
@@ -4742,11 +4746,11 @@
         <v>51.611556190000002</v>
       </c>
       <c r="L86" s="2"/>
-      <c r="M86" s="15"/>
+      <c r="M86" s="11"/>
       <c r="N86" s="2"/>
-      <c r="O86" s="16"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O86" s="12"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>67</v>
       </c>
@@ -4765,7 +4769,7 @@
       <c r="F87" s="2">
         <v>124</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G87" s="12">
         <v>4.5207499999999996</v>
       </c>
       <c r="H87" s="2">
@@ -4778,11 +4782,11 @@
         <v>26.455266179999999</v>
       </c>
       <c r="L87" s="2"/>
-      <c r="M87" s="15"/>
+      <c r="M87" s="11"/>
       <c r="N87" s="2"/>
-      <c r="O87" s="16"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O87" s="12"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>21</v>
       </c>
@@ -4801,7 +4805,7 @@
       <c r="F88" s="2">
         <v>188</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="12">
         <v>0.39750000000000002</v>
       </c>
       <c r="H88" s="2">
@@ -4814,11 +4818,11 @@
         <v>34.58269422</v>
       </c>
       <c r="L88" s="2"/>
-      <c r="M88" s="15"/>
+      <c r="M88" s="11"/>
       <c r="N88" s="2"/>
-      <c r="O88" s="16"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="12"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>20</v>
       </c>
@@ -4837,7 +4841,7 @@
       <c r="F89" s="2">
         <v>184</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G89" s="12">
         <v>0.71779999999999999</v>
       </c>
       <c r="H89" s="2">
@@ -4850,11 +4854,11 @@
         <v>50.165907660000002</v>
       </c>
       <c r="L89" s="2"/>
-      <c r="M89" s="15"/>
+      <c r="M89" s="11"/>
       <c r="N89" s="2"/>
-      <c r="O89" s="16"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O89" s="12"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>67</v>
       </c>
@@ -4873,7 +4877,7 @@
       <c r="F90" s="2">
         <v>122</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G90" s="12">
         <v>3.7465000000000002</v>
       </c>
       <c r="H90" s="2">
@@ -4886,11 +4890,11 @@
         <v>54.467138660000003</v>
       </c>
       <c r="L90" s="2"/>
-      <c r="M90" s="15"/>
+      <c r="M90" s="11"/>
       <c r="N90" s="2"/>
-      <c r="O90" s="16"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="12"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>24</v>
       </c>
@@ -4909,7 +4913,7 @@
       <c r="F91" s="2">
         <v>125</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G91" s="12">
         <v>0.69930000000000003</v>
       </c>
       <c r="H91" s="2">
@@ -4922,11 +4926,11 @@
         <v>48.4661896</v>
       </c>
       <c r="L91" s="2"/>
-      <c r="M91" s="15"/>
+      <c r="M91" s="11"/>
       <c r="N91" s="2"/>
-      <c r="O91" s="16"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="12"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>19</v>
       </c>
@@ -4945,7 +4949,7 @@
       <c r="F92" s="2">
         <v>188</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G92" s="12">
         <v>0.63129999999999997</v>
       </c>
       <c r="H92" s="2">
@@ -4958,11 +4962,11 @@
         <v>32.4690534</v>
       </c>
       <c r="L92" s="2"/>
-      <c r="M92" s="15"/>
+      <c r="M92" s="11"/>
       <c r="N92" s="2"/>
-      <c r="O92" s="16"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O92" s="12"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>22</v>
       </c>
@@ -4981,7 +4985,7 @@
       <c r="F93" s="2">
         <v>118</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="12">
         <v>0.97750000000000004</v>
       </c>
       <c r="H93" s="2">
@@ -4994,11 +4998,11 @@
         <v>72.455482380000007</v>
       </c>
       <c r="L93" s="2"/>
-      <c r="M93" s="15"/>
+      <c r="M93" s="11"/>
       <c r="N93" s="2"/>
-      <c r="O93" s="16"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O93" s="12"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>68</v>
       </c>
@@ -5017,7 +5021,7 @@
       <c r="F94" s="2">
         <v>128</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="12">
         <v>2.6124000000000001</v>
       </c>
       <c r="H94" s="2">
@@ -5030,11 +5034,11 @@
         <v>46.979080500000002</v>
       </c>
       <c r="L94" s="2"/>
-      <c r="M94" s="15"/>
+      <c r="M94" s="11"/>
       <c r="N94" s="2"/>
-      <c r="O94" s="16"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="12"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>67</v>
       </c>
@@ -5053,7 +5057,7 @@
       <c r="F95" s="2">
         <v>184</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="12">
         <v>3.3009499999999998</v>
       </c>
       <c r="H95" s="2">
@@ -5066,11 +5070,11 @@
         <v>40.92331059</v>
       </c>
       <c r="L95" s="2"/>
-      <c r="M95" s="15"/>
+      <c r="M95" s="11"/>
       <c r="N95" s="2"/>
-      <c r="O95" s="16"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O95" s="12"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>21</v>
       </c>
@@ -5089,7 +5093,7 @@
       <c r="F96" s="2">
         <v>108</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96" s="12">
         <v>0.76139999999999997</v>
       </c>
       <c r="H96" s="2">
@@ -5102,11 +5106,11 @@
         <v>70.815494720000004</v>
       </c>
       <c r="L96" s="2"/>
-      <c r="M96" s="15"/>
+      <c r="M96" s="11"/>
       <c r="N96" s="2"/>
-      <c r="O96" s="16"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="12"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>22</v>
       </c>
@@ -5125,7 +5129,7 @@
       <c r="F97" s="2">
         <v>184</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="12">
         <v>1.7914000000000001</v>
       </c>
       <c r="H97" s="2">
@@ -5138,11 +5142,11 @@
         <v>25.119755860000001</v>
       </c>
       <c r="L97" s="2"/>
-      <c r="M97" s="15"/>
+      <c r="M97" s="11"/>
       <c r="N97" s="2"/>
-      <c r="O97" s="16"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="12"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>22</v>
       </c>
@@ -5161,7 +5165,7 @@
       <c r="F98" s="2">
         <v>167</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="12">
         <v>0.69679999999999997</v>
       </c>
       <c r="H98" s="2">
@@ -5174,11 +5178,11 @@
         <v>44.186901339999999</v>
       </c>
       <c r="L98" s="2"/>
-      <c r="M98" s="15"/>
+      <c r="M98" s="11"/>
       <c r="N98" s="2"/>
-      <c r="O98" s="16"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="12"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>20</v>
       </c>
@@ -5197,7 +5201,7 @@
       <c r="F99" s="2">
         <v>150</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99" s="12">
         <v>1.4006000000000001</v>
       </c>
       <c r="H99" s="2">
@@ -5210,11 +5214,11 @@
         <v>61.57474981</v>
       </c>
       <c r="L99" s="2"/>
-      <c r="M99" s="15"/>
+      <c r="M99" s="11"/>
       <c r="N99" s="2"/>
-      <c r="O99" s="16"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="12"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>71</v>
       </c>
@@ -5233,7 +5237,7 @@
       <c r="F100" s="2">
         <v>189</v>
       </c>
-      <c r="G100" s="16">
+      <c r="G100" s="12">
         <v>2.4205999999999999</v>
       </c>
       <c r="H100" s="2">
@@ -5246,11 +5250,11 @@
         <v>29.36324067</v>
       </c>
       <c r="L100" s="2"/>
-      <c r="M100" s="15"/>
+      <c r="M100" s="11"/>
       <c r="N100" s="2"/>
-      <c r="O100" s="16"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="12"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>73</v>
       </c>
@@ -5269,7 +5273,7 @@
       <c r="F101" s="2">
         <v>113</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101" s="12">
         <v>3.5880999999999998</v>
       </c>
       <c r="H101" s="2">
@@ -5282,11 +5286,11 @@
         <v>54.137827369999997</v>
       </c>
       <c r="L101" s="2"/>
-      <c r="M101" s="15"/>
+      <c r="M101" s="11"/>
       <c r="N101" s="2"/>
-      <c r="O101" s="16"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="12"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>20</v>
       </c>
@@ -5305,7 +5309,7 @@
       <c r="F102" s="2">
         <v>122</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="12">
         <v>0.75480000000000003</v>
       </c>
       <c r="H102" s="2">
@@ -5318,149 +5322,149 @@
         <v>50.426298950000003</v>
       </c>
       <c r="L102" s="2"/>
-      <c r="M102" s="15"/>
+      <c r="M102" s="11"/>
       <c r="N102" s="2"/>
-      <c r="O102" s="16"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
+      <c r="O102" s="12"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5468,10 +5472,1691 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23233DBC-97A9-4205-AE6C-DC3D83918B91}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="11" style="2"/>
+    <col min="4" max="4" width="4.3984375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2"/>
+    <col min="7" max="7" width="4.3984375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
+        <v>300000</v>
+      </c>
+      <c r="C4" s="24">
+        <v>157800</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>57400</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>85800</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>12400</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C8" s="10">
+        <v>45600</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C9" s="10">
+        <v>22100</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>163700</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C11" s="10">
+        <v>166300</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C12" s="10">
+        <v>94100</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C13" s="10">
+        <v>192800</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" s="33"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C14" s="10">
+        <v>135300</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C15" s="10">
+        <v>62800</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C16" s="10">
+        <v>25100</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C17" s="10">
+        <v>6400</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C18" s="10">
+        <v>166800</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C19" s="10">
+        <v>19800</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C20" s="10">
+        <v>20300</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C21" s="10">
+        <v>69100</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C22" s="10">
+        <v>151900</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C23" s="10">
+        <v>108100</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>21</v>
+      </c>
+      <c r="B24" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C24" s="10">
+        <v>111600</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>22</v>
+      </c>
+      <c r="B25" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C25" s="10">
+        <v>11300</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>23</v>
+      </c>
+      <c r="B26" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C26" s="10">
+        <v>154200</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26">
+        <v>300000</v>
+      </c>
+      <c r="C27" s="27">
+        <v>141700</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2877B6E-77DD-4B78-82A7-7F111DBCD5B7}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="11" style="2"/>
+    <col min="4" max="4" width="4.3984375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2"/>
+    <col min="7" max="7" width="4.3984375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
+        <v>40000</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1100</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2200</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4800</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4500</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4300</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C21" s="10">
+        <v>10400</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C22" s="10">
+        <v>8500</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C23" s="10">
+        <v>13900</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>21</v>
+      </c>
+      <c r="B24" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C24" s="10">
+        <v>11900</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>22</v>
+      </c>
+      <c r="B25" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C25" s="10">
+        <v>13700</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>23</v>
+      </c>
+      <c r="B26" s="25">
+        <v>40000</v>
+      </c>
+      <c r="C26" s="10">
+        <v>15900</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26">
+        <v>40000</v>
+      </c>
+      <c r="C27" s="27">
+        <v>14000</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD97188-E37A-4F7E-87EC-26060779D79E}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="11" style="2"/>
+    <col min="4" max="4" width="4.3984375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2"/>
+    <col min="7" max="7" width="4.3984375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
+        <v>200000</v>
+      </c>
+      <c r="C4" s="24">
+        <v>78050</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>63350</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>74900</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>72450</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C8" s="10">
+        <v>87150</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C9" s="10">
+        <v>96250</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>91000</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C11" s="10">
+        <v>85400</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C12" s="10">
+        <v>65800</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C13" s="10">
+        <v>65450</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C14" s="10">
+        <v>67900</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C15" s="10">
+        <v>38850</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C16" s="10">
+        <v>68950</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C17" s="10">
+        <v>61600</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C18" s="10">
+        <v>71400</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C19" s="10">
+        <v>85400</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C20" s="10">
+        <v>84700</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C21" s="10">
+        <v>102200</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C22" s="10">
+        <v>88900</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C23" s="10">
+        <v>77350</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>21</v>
+      </c>
+      <c r="B24" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C24" s="10">
+        <v>61950</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>22</v>
+      </c>
+      <c r="B25" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C25" s="10">
+        <v>68600</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>23</v>
+      </c>
+      <c r="B26" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C26" s="10">
+        <v>58100</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26">
+        <v>200000</v>
+      </c>
+      <c r="C27" s="27">
+        <v>52850</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5607,31 +7292,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C4373B-81EF-4ABB-B3CC-C8E866B668A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6E1AC17-E84F-4078-AC50-412A2ACA02C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="342b2047-f10a-4128-9456-37e93a43a69c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7FFE766-8747-4A1F-9B32-2B5C0CE4DCB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6E1AC17-E84F-4078-AC50-412A2ACA02C6}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C4373B-81EF-4ABB-B3CC-C8E866B668A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>